--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/validation_usecase_27/Level_for_HierarchyBlank.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/validation_usecase_27/Level_for_HierarchyBlank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ram.sin\git_selenium\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\validation_usecase_27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\validation_usecase_27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="114">
   <si>
     <t>Program Title</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Andorra</t>
   </si>
   <si>
     <t>Alaska</t>
@@ -759,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -798,23 +795,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -844,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
